--- a/public/files/1.parktemplate.xlsx
+++ b/public/files/1.parktemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32420" windowHeight="15020"/>
+    <workbookView windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -183,7 +183,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,92 +290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,21 +313,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,49 +364,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,37 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,66 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,8 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,24 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,6 +608,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +653,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,169 +675,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1168,7 +1165,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1199,8 +1196,8 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -1209,8 +1206,8 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
@@ -1219,8 +1216,8 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
@@ -1229,8 +1226,8 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
@@ -1239,8 +1236,8 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
@@ -1249,8 +1246,8 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
@@ -1259,8 +1256,8 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
@@ -1269,8 +1266,8 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
@@ -1279,8 +1276,8 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
@@ -1289,8 +1286,8 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -1299,8 +1296,8 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
@@ -1309,8 +1306,8 @@
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
@@ -1319,8 +1316,8 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
@@ -1329,8 +1326,8 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
@@ -1339,8 +1336,8 @@
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
@@ -1349,8 +1346,8 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
@@ -1359,122 +1356,140 @@
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="1">
+    <comment s:ref="A1" rgbClr="73C760"/>
+    <comment s:ref="B1" rgbClr="73C760"/>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>